--- a/1. Intro to Data Science/1.3 Sklearn/1.3 Homework/Описание.xlsx
+++ b/1. Intro to Data Science/1.3 Sklearn/1.3 Homework/Описание.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Артем\Notebooks\ds3-spring-2018-master\1. Intro to Data Science\1.3 Sklearn\1.3 Homework\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8475"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -821,8 +816,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,7 +923,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -963,7 +958,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1140,21 +1135,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -1163,7 +1158,7 @@
     <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1178,7 +1173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1193,7 +1188,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +1205,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1222,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +1250,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1267,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1284,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1306,7 +1301,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1323,7 +1318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1340,7 +1335,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1357,7 +1352,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1374,7 +1369,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1391,7 +1386,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1408,7 +1403,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1425,7 +1420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1442,7 +1437,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1459,7 +1454,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1476,7 +1471,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1493,7 +1488,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1507,7 +1502,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1521,7 +1516,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +1533,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1555,7 +1550,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1572,7 +1567,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1589,7 +1584,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1606,7 +1601,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1620,7 +1615,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1637,7 +1632,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1654,7 +1649,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1671,7 +1666,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1691,7 +1686,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1711,7 +1706,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1728,7 +1723,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1745,7 +1740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1759,7 +1754,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1776,7 +1771,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1790,7 +1785,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1804,7 +1799,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1818,7 +1813,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1832,7 +1827,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1846,7 +1841,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -1860,7 +1855,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1874,7 +1869,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -1888,7 +1883,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -1902,7 +1897,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -1916,7 +1911,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -1930,7 +1925,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -1944,7 +1939,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -1958,7 +1953,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -1972,7 +1967,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
@@ -1986,7 +1981,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
@@ -2000,7 +1995,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -2014,7 +2009,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -2028,7 +2023,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -2042,7 +2037,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2056,7 +2051,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -2070,7 +2065,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
@@ -2084,7 +2079,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -2098,7 +2093,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2112,7 +2107,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
@@ -2126,7 +2121,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -2140,7 +2135,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
@@ -2154,7 +2149,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -2168,7 +2163,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -2182,7 +2177,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
@@ -2196,7 +2191,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
@@ -2210,7 +2205,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
@@ -2224,7 +2219,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
@@ -2238,7 +2233,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
@@ -2252,7 +2247,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
@@ -2266,7 +2261,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
@@ -2280,7 +2275,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
         <v>78</v>
       </c>
@@ -2294,7 +2289,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
@@ -2308,7 +2303,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
         <v>80</v>
       </c>
@@ -2322,7 +2317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>81</v>
       </c>
@@ -2336,7 +2331,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>82</v>
       </c>
@@ -2350,7 +2345,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>83</v>
       </c>
@@ -2364,7 +2359,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
         <v>84</v>
       </c>
@@ -2378,7 +2373,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>85</v>
       </c>
@@ -2392,7 +2387,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
         <v>86</v>
       </c>

--- a/1. Intro to Data Science/1.3 Sklearn/1.3 Homework/Описание.xlsx
+++ b/1. Intro to Data Science/1.3 Sklearn/1.3 Homework/Описание.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="271">
   <si>
     <t>Описание</t>
   </si>
@@ -811,6 +811,27 @@
   </si>
   <si>
     <t>цена</t>
+  </si>
+  <si>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>2010- www</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1156,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1145,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -1154,7 +1175,7 @@
     <col min="1" max="1" width="31.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1201,6 +1222,9 @@
       <c r="D3" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="G3" s="1" t="s">
         <v>87</v>
       </c>
@@ -1218,6 +1242,9 @@
       <c r="D4" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="E4" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="G4" s="1" t="s">
         <v>88</v>
       </c>
@@ -1232,6 +1259,9 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G5" s="1" t="s">
         <v>89</v>
       </c>
@@ -1246,6 +1276,9 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E6" s="3" t="s">
+        <v>266</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>90</v>
       </c>
@@ -1263,6 +1296,9 @@
       <c r="D7" s="3" t="s">
         <v>177</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>91</v>
       </c>
@@ -1280,6 +1316,9 @@
       <c r="D8" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>92</v>
       </c>
@@ -1297,6 +1336,9 @@
       <c r="D9" s="3" t="s">
         <v>179</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>93</v>
       </c>
@@ -1314,6 +1356,9 @@
       <c r="D10" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>94</v>
       </c>
@@ -1331,6 +1376,9 @@
       <c r="D11" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>95</v>
       </c>
@@ -1348,6 +1396,9 @@
       <c r="D12" s="3" t="s">
         <v>181</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>96</v>
       </c>
@@ -1365,6 +1416,9 @@
       <c r="D13" s="3" t="s">
         <v>178</v>
       </c>
+      <c r="E13" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>97</v>
       </c>
@@ -1382,6 +1436,9 @@
       <c r="D14" s="3" t="s">
         <v>187</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="G14" s="1" t="s">
         <v>98</v>
       </c>
@@ -1399,6 +1456,9 @@
       <c r="D15" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>99</v>
       </c>
@@ -1416,6 +1476,9 @@
       <c r="D16" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="E16" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>100</v>
       </c>
@@ -1433,6 +1496,9 @@
       <c r="D17" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="E17" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>101</v>
       </c>
@@ -1450,6 +1516,9 @@
       <c r="D18" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="E18" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>102</v>
       </c>
@@ -1467,6 +1536,9 @@
       <c r="D19" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="E19" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>103</v>
       </c>
@@ -1484,6 +1556,9 @@
       <c r="D20" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="E20" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>104</v>
       </c>
@@ -1498,6 +1573,9 @@
       <c r="C21" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E21" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>105</v>
       </c>
@@ -1512,6 +1590,9 @@
       <c r="C22" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>106</v>
       </c>
@@ -1529,6 +1610,9 @@
       <c r="D23" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>107</v>
       </c>
@@ -1546,6 +1630,9 @@
       <c r="D24" s="3" t="s">
         <v>201</v>
       </c>
+      <c r="E24" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>108</v>
       </c>
@@ -1563,6 +1650,9 @@
       <c r="D25" s="3" t="s">
         <v>204</v>
       </c>
+      <c r="E25" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>109</v>
       </c>
@@ -1580,6 +1670,9 @@
       <c r="D26" s="3" t="s">
         <v>204</v>
       </c>
+      <c r="E26" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>110</v>
       </c>
@@ -1597,6 +1690,9 @@
       <c r="D27" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="E27" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>111</v>
       </c>
@@ -1611,6 +1707,9 @@
       <c r="C28" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E28" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>112</v>
       </c>
@@ -1628,6 +1727,9 @@
       <c r="D29" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="E29" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="G29" s="1" t="s">
         <v>113</v>
       </c>
@@ -1645,6 +1747,9 @@
       <c r="D30" s="3" t="s">
         <v>189</v>
       </c>
+      <c r="E30" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="G30" s="1" t="s">
         <v>114</v>
       </c>
@@ -1661,6 +1766,9 @@
       </c>
       <c r="D31" s="3" t="s">
         <v>199</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>115</v>

--- a/1. Intro to Data Science/1.3 Sklearn/1.3 Homework/Описание.xlsx
+++ b/1. Intro to Data Science/1.3 Sklearn/1.3 Homework/Описание.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8475"/>
@@ -10,8 +10,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="271">
   <si>
     <t>Описание</t>
   </si>
@@ -837,8 +837,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,21 +1156,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="3" bestFit="1" customWidth="1"/>
@@ -1179,7 +1179,7 @@
     <col min="5" max="5" width="12.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1194,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
@@ -1827,11 +1827,14 @@
       <c r="D34" s="3" t="s">
         <v>192</v>
       </c>
+      <c r="E34" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>39</v>
       </c>
@@ -1844,11 +1847,14 @@
       <c r="D35" s="3" t="s">
         <v>201</v>
       </c>
+      <c r="E35" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G35" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1858,11 +1864,14 @@
       <c r="C36" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E36" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
@@ -1875,11 +1884,14 @@
       <c r="D37" s="3" t="s">
         <v>201</v>
       </c>
+      <c r="E37" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
@@ -1889,11 +1901,14 @@
       <c r="C38" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E38" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -1903,11 +1918,14 @@
       <c r="C39" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E39" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -1917,11 +1935,14 @@
       <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E40" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -1931,11 +1952,14 @@
       <c r="C41" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="E41" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="G41" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -1945,11 +1969,14 @@
       <c r="C42" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="E42" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
@@ -1959,11 +1986,14 @@
       <c r="C43" s="3" t="s">
         <v>223</v>
       </c>
+      <c r="E43" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
@@ -1973,11 +2003,14 @@
       <c r="C44" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="E44" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="G44" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -1987,11 +2020,14 @@
       <c r="C45" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E45" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
@@ -2001,11 +2037,14 @@
       <c r="C46" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E46" s="3" t="s">
+        <v>265</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
@@ -2019,7 +2058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
@@ -2033,7 +2072,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -2047,7 +2086,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -2061,7 +2100,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
@@ -2075,7 +2114,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
@@ -2089,7 +2128,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
@@ -2103,7 +2142,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
@@ -2117,7 +2156,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -2131,7 +2170,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -2145,7 +2184,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -2159,7 +2198,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
@@ -2173,7 +2212,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
@@ -2187,7 +2226,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -2201,7 +2240,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
@@ -2215,7 +2254,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
@@ -2229,7 +2268,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
@@ -2243,7 +2282,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
@@ -2257,7 +2296,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
@@ -2271,7 +2310,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
@@ -2285,7 +2324,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
@@ -2299,7 +2338,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
@@ -2313,7 +2352,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>73</v>
       </c>
@@ -2327,7 +2366,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>74</v>
       </c>
@@ -2341,7 +2380,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>75</v>
       </c>
@@ -2355,7 +2394,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>76</v>
       </c>
@@ -2369,7 +2408,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>77</v>
       </c>
@@ -2383,7 +2422,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>78</v>
       </c>
@@ -2397,7 +2436,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>79</v>
       </c>
@@ -2411,7 +2450,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>80</v>
       </c>
@@ -2425,7 +2464,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>81</v>
       </c>
@@ -2439,7 +2478,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>82</v>
       </c>
@@ -2453,7 +2492,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>83</v>
       </c>
@@ -2467,7 +2506,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>84</v>
       </c>
@@ -2481,7 +2520,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>85</v>
       </c>
@@ -2495,7 +2534,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>86</v>
       </c>
